--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26950" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -107,52 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,19 +168,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,6 +220,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -214,30 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,43 +264,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,133 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,17 +491,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +511,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,24 +556,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,143 +582,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1074,20 +1071,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.6272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1132,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,13 +1156,13 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>500</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1176,13 +1173,13 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>500</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1193,13 +1190,13 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>500</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1210,13 +1207,13 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>500</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26950" windowHeight="13160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>UnlockMedicine</t>
   </si>
   <si>
-    <t>1|20;2|20</t>
+    <t>1001|20;1002|20</t>
   </si>
   <si>
     <t>Med1</t>
@@ -78,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -100,6 +100,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -107,7 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,7 +129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,21 +137,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -160,6 +158,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -168,37 +180,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,16 +220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,15 +237,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +467,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -478,24 +507,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,23 +529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,13 +550,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,20 +1071,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -58,19 +58,58 @@
     <t>UnlockMedicine</t>
   </si>
   <si>
-    <t>1001|20;1002|20</t>
+    <t>1001|1200;1004|150</t>
   </si>
   <si>
     <t>Med1</t>
   </si>
   <si>
+    <t>1001|3000;1004|600</t>
+  </si>
+  <si>
     <t>Med2</t>
   </si>
   <si>
+    <t>QingRock</t>
+  </si>
+  <si>
+    <t>WuWood</t>
+  </si>
+  <si>
+    <t>CloudRock</t>
+  </si>
+  <si>
+    <t>SilverWood</t>
+  </si>
+  <si>
+    <t>1001|12000;1004|2500</t>
+  </si>
+  <si>
     <t>Med3</t>
   </si>
   <si>
+    <t>青岩</t>
+  </si>
+  <si>
+    <t>乌木</t>
+  </si>
+  <si>
+    <t>云岩</t>
+  </si>
+  <si>
+    <t>银木</t>
+  </si>
+  <si>
+    <t>1003|6000;1004|15000</t>
+  </si>
+  <si>
     <t>Med4</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>高级</t>
   </si>
 </sst>
 </file>
@@ -78,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -106,6 +145,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -114,7 +154,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,23 +243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,15 +266,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,69 +277,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,31 +303,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,145 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,15 +508,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -497,40 +527,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,16 +557,49 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,18 +1105,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
@@ -1152,7 +1191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1163,61 +1202,130 @@
         <v>500</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I5" s="2">
+        <v>2500</v>
+      </c>
+      <c r="J5" s="2">
+        <v>150</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1003</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7500</v>
+      </c>
+      <c r="J6" s="2">
+        <v>600</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>500</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I7" s="2">
+        <v>25000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>500</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="J8" s="2">
+        <v>15000</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -70,46 +70,16 @@
     <t>Med2</t>
   </si>
   <si>
-    <t>QingRock</t>
-  </si>
-  <si>
-    <t>WuWood</t>
-  </si>
-  <si>
-    <t>CloudRock</t>
-  </si>
-  <si>
-    <t>SilverWood</t>
-  </si>
-  <si>
     <t>1001|12000;1004|2500</t>
   </si>
   <si>
     <t>Med3</t>
   </si>
   <si>
-    <t>青岩</t>
-  </si>
-  <si>
-    <t>乌木</t>
-  </si>
-  <si>
-    <t>云岩</t>
-  </si>
-  <si>
-    <t>银木</t>
-  </si>
-  <si>
     <t>1003|6000;1004|15000</t>
   </si>
   <si>
     <t>Med4</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>高级</t>
   </si>
 </sst>
 </file>
@@ -118,9 +88,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,27 +109,119 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -169,28 +231,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -198,15 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,68 +251,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -297,13 +267,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,43 +387,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,121 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,51 +476,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -574,8 +509,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,16 +548,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -609,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,15 +1075,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
@@ -1191,7 +1161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1199,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -1207,26 +1177,8 @@
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2">
-        <v>2500</v>
-      </c>
-      <c r="J5" s="2">
-        <v>150</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1001</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1002</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1003</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1004</v>
-      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1234,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -1242,90 +1194,39 @@
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="2">
-        <v>7500</v>
-      </c>
-      <c r="J6" s="2">
-        <v>600</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>500</v>
+        <v>65000</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2">
-        <v>25000</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2500</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="D8" s="2">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="17040" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>ID</t>
   </si>
@@ -55,31 +55,19 @@
     <t>UpgradePreconditions</t>
   </si>
   <si>
-    <t>UnlockMedicine</t>
+    <t>UnlockHerbID</t>
   </si>
   <si>
     <t>1001|1200;1004|150</t>
   </si>
   <si>
-    <t>Med1</t>
-  </si>
-  <si>
     <t>1001|3000;1004|600</t>
   </si>
   <si>
-    <t>Med2</t>
-  </si>
-  <si>
     <t>1001|12000;1004|2500</t>
   </si>
   <si>
-    <t>Med3</t>
-  </si>
-  <si>
     <t>1003|6000;1004|15000</t>
-  </si>
-  <si>
-    <t>Med4</t>
   </si>
 </sst>
 </file>
@@ -87,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,6 +97,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,6 +133,52 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -123,10 +186,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,39 +210,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,71 +225,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,187 +255,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +464,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,9 +490,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,19 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,145 +567,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,20 +1068,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,8 +1162,8 @@
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
+      <c r="E5" s="2">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1183,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>18000</v>
@@ -1191,8 +1179,8 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
+      <c r="E6" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1200,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>65000</v>
@@ -1208,8 +1196,8 @@
       <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
+      <c r="E7" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1217,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>180000</v>
@@ -1225,8 +1213,8 @@
       <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
+      <c r="E8" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17040" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -58,16 +58,19 @@
     <t>UnlockHerbID</t>
   </si>
   <si>
-    <t>1001|1200;1004|150</t>
-  </si>
-  <si>
-    <t>1001|3000;1004|600</t>
-  </si>
-  <si>
-    <t>1001|12000;1004|2500</t>
-  </si>
-  <si>
-    <t>1003|6000;1004|15000</t>
+    <t>1001|600;1004|120</t>
+  </si>
+  <si>
+    <t>主木</t>
+  </si>
+  <si>
+    <t>1001|1800;1004|360</t>
+  </si>
+  <si>
+    <t>1001|8000;1004|1600</t>
+  </si>
+  <si>
+    <t>1003|6000;1004|12000</t>
   </si>
 </sst>
 </file>
@@ -76,8 +79,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -97,36 +100,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +189,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -147,32 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,37 +223,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,15 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,8 +470,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,13 +511,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,46 +560,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,137 +582,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,6 +720,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1063,25 +1070,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1165,13 +1172,25 @@
       <c r="E5" s="2">
         <v>101</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J5" s="2">
+        <v>120</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>18000</v>
@@ -1182,13 +1201,22 @@
       <c r="E6" s="2">
         <v>102</v>
       </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J6" s="2">
+        <v>360</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>65000</v>
@@ -1199,13 +1227,22 @@
       <c r="E7" s="2">
         <v>103</v>
       </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>180000</v>
@@ -1216,11 +1253,15 @@
       <c r="E8" s="2">
         <v>104</v>
       </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2">
+        <v>12000</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
-    <sortCondition ref="A5"/>
-  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -58,19 +58,19 @@
     <t>UnlockHerbID</t>
   </si>
   <si>
-    <t>1001|600;1004|120</t>
+    <t>1001|600;1004|240</t>
   </si>
   <si>
     <t>主木</t>
   </si>
   <si>
-    <t>1001|1800;1004|360</t>
-  </si>
-  <si>
-    <t>1001|8000;1004|1600</t>
-  </si>
-  <si>
-    <t>1003|6000;1004|12000</t>
+    <t>1001|1800;1004|750</t>
+  </si>
+  <si>
+    <t>1001|8000;1004|3200</t>
+  </si>
+  <si>
+    <t>1003|6000;1004|24000</t>
   </si>
 </sst>
 </file>
@@ -80,8 +80,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,14 +100,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,14 +151,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,45 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -189,42 +227,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,13 +242,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -258,175 +258,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,35 +467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -507,6 +478,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,17 +506,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +536,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1075,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1182,7 +1182,7 @@
         <v>1200</v>
       </c>
       <c r="J5" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1208,7 +1208,7 @@
         <v>3600</v>
       </c>
       <c r="J6" s="2">
-        <v>360</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1234,7 +1234,7 @@
         <v>16000</v>
       </c>
       <c r="J7" s="2">
-        <v>1600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="2">
-        <v>12000</v>
+        <v>24000</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -58,19 +58,19 @@
     <t>UnlockHerbID</t>
   </si>
   <si>
-    <t>1001|600;1004|240</t>
+    <t>1001|800;1004|450</t>
   </si>
   <si>
     <t>主木</t>
   </si>
   <si>
-    <t>1001|1800;1004|750</t>
-  </si>
-  <si>
-    <t>1001|8000;1004|3200</t>
-  </si>
-  <si>
-    <t>1003|6000;1004|24000</t>
+    <t>1001|2000;1004|1200</t>
+  </si>
+  <si>
+    <t>1001|3000;1004|2000</t>
+  </si>
+  <si>
+    <t>1003|1400;1004|3200</t>
   </si>
 </sst>
 </file>
@@ -80,8 +80,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,44 +100,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,67 +130,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,28 +144,104 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -258,19 +258,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,49 +390,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,97 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +467,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -485,23 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,35 +550,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,19 +582,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,112 +603,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -1179,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="J5" s="2">
-        <v>240</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1193,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>18000</v>
+        <v>3600</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -1205,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="J6" s="2">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1219,7 +1219,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>65000</v>
+        <v>6000</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -1231,10 +1231,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="3">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="J7" s="2">
-        <v>3200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="D8" s="2">
         <v>8</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="2">
-        <v>24000</v>
+        <v>2800</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -58,19 +58,16 @@
     <t>UnlockHerbID</t>
   </si>
   <si>
-    <t>1001|800;1004|450</t>
-  </si>
-  <si>
-    <t>主木</t>
-  </si>
-  <si>
-    <t>1001|2000;1004|1200</t>
-  </si>
-  <si>
-    <t>1001|3000;1004|2000</t>
-  </si>
-  <si>
-    <t>1003|1400;1004|3200</t>
+    <t>1003|400;1002|180</t>
+  </si>
+  <si>
+    <t>1003|800;1002|480</t>
+  </si>
+  <si>
+    <t>1003|1600;1002|1250</t>
+  </si>
+  <si>
+    <t>1003|2600;1004|2080</t>
   </si>
 </sst>
 </file>
@@ -100,6 +97,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -107,6 +143,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -114,22 +157,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,85 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +216,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -258,91 +255,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,91 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,11 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,8 +482,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,37 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +527,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,16 +550,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,137 +579,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,10 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1070,15 +1063,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
@@ -1156,7 +1149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1172,25 +1165,13 @@
       <c r="E5" s="2">
         <v>101</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J5" s="2">
-        <v>450</v>
-      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>3600</v>
@@ -1201,22 +1182,13 @@
       <c r="E6" s="2">
         <v>102</v>
       </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>6000</v>
@@ -1227,22 +1199,13 @@
       <c r="E7" s="2">
         <v>103</v>
       </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1800</v>
-      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>11000</v>
@@ -1252,13 +1215,6 @@
       </c>
       <c r="E8" s="2">
         <v>104</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2">
-        <v>2800</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -97,7 +97,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,29 +219,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,90 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,19 +255,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,138 +429,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,24 +436,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +464,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -483,7 +507,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,39 +523,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,16 +552,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1068,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -58,16 +58,16 @@
     <t>UnlockHerbID</t>
   </si>
   <si>
-    <t>1003|400;1002|180</t>
-  </si>
-  <si>
-    <t>1003|800;1002|480</t>
-  </si>
-  <si>
-    <t>1003|1600;1002|1250</t>
-  </si>
-  <si>
-    <t>1003|2600;1004|2080</t>
+    <t>1001|600;1004|400</t>
+  </si>
+  <si>
+    <t>1001|1200;1004|800</t>
+  </si>
+  <si>
+    <t>1001|2500;1004|1600</t>
+  </si>
+  <si>
+    <t>1003|2600;1004|2600</t>
   </si>
 </sst>
 </file>
@@ -76,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,6 +103,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -111,15 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,114 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,181 +261,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,22 +468,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,23 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +514,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -552,25 +561,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1068,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBaicaohu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,16 +58,16 @@
     <t>UnlockHerbID</t>
   </si>
   <si>
-    <t>1001|600;1004|400</t>
+    <t>1001|300;1004|160</t>
+  </si>
+  <si>
+    <t>1001|500;1004|300</t>
   </si>
   <si>
     <t>1001|1200;1004|800</t>
   </si>
   <si>
-    <t>1001|2500;1004|1600</t>
-  </si>
-  <si>
-    <t>1003|2600;1004|2600</t>
+    <t>1003|2000;1004|2000</t>
   </si>
 </sst>
 </file>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,21 +104,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -126,14 +134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,21 +143,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,8 +156,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -180,6 +190,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,53 +239,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -255,49 +255,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,133 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,8 +467,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,8 +491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,9 +514,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,162 +561,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
